--- a/trunk/Documents/IssueList.xlsx
+++ b/trunk/Documents/IssueList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Total person restriction (for Auto = 3, Cab = 4) is not happening..</t>
   </si>
@@ -46,6 +46,13 @@
   </si>
   <si>
     <t>User should not able to enter another Travel Details if he has already an active one.He has to delete old entry to create new one.</t>
+  </si>
+  <si>
+    <t>Require more discussion. 
+Displaying mobile no at one side?</t>
+  </si>
+  <si>
+    <t>To be discuss</t>
   </si>
 </sst>
 </file>
@@ -108,13 +115,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,18 +419,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="80.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -428,7 +439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -436,13 +447,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="43.5">
+    <row r="3" spans="1:3" ht="43.5">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" ht="33" customHeight="1">
+    <row r="4" spans="1:3" ht="33" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -450,29 +461,41 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="45" customHeight="1">
+    <row r="5" spans="1:3" ht="45" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3"/>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/Documents/IssueList.xlsx
+++ b/trunk/Documents/IssueList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>Total person restriction (for Auto = 3, Cab = 4) is not happening..</t>
   </si>
@@ -53,6 +53,114 @@
   </si>
   <si>
     <t>To be discuss</t>
+  </si>
+  <si>
+    <t>Manual refresh button on 'Travel List' page</t>
+  </si>
+  <si>
+    <t>Time entry restriction - No more than 2 hours in advance</t>
+  </si>
+  <si>
+    <t>Terms &amp; Condition hyperlink to be active</t>
+  </si>
+  <si>
+    <t>Auto delete of unfulfilled entries</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>to be link with new page</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>-----------------</t>
+  </si>
+  <si>
+    <t>Mobile no. automated - And there should be local SD and server entry</t>
+  </si>
+  <si>
+    <t>Read local SD and direct to Travel Detail List page</t>
+  </si>
+  <si>
+    <t>No SD entry then - auto mobile no. / dual sim to be consider</t>
+  </si>
+  <si>
+    <t>Travel detail list</t>
+  </si>
+  <si>
+    <t>----------------------</t>
+  </si>
+  <si>
+    <t>New plan button</t>
+  </si>
+  <si>
+    <t>Refresh - Maharaj need - reactive event for this (andriod application life cycle)</t>
+  </si>
+  <si>
+    <t>Plus there will be timer to refresh (every 1 mins)</t>
+  </si>
+  <si>
+    <t>Quit - Not required (as there will be button available on handset phone)</t>
+  </si>
+  <si>
+    <t>Display List - All information to be displayed, however UI will be taken care in later release</t>
+  </si>
+  <si>
+    <t>Confirm button - Functionality to be changed here. User need to CALL first and later CONFIRM</t>
+  </si>
+  <si>
+    <t>Existing entries to be displayed</t>
+  </si>
+  <si>
+    <t>Need to find a way to block entries - user 1 and / or user 2 after CONFIRM</t>
+  </si>
+  <si>
+    <t>Auto delete entries - manage by user and not application</t>
+  </si>
+  <si>
+    <t>For later release - this has to be done by auto program</t>
+  </si>
+  <si>
+    <t>Logically delete - implemented by Maharaj. (extra column for block flag)</t>
+  </si>
+  <si>
+    <t>Double entry - allowed</t>
+  </si>
+  <si>
+    <t>Note: we should not block information from user</t>
+  </si>
+  <si>
+    <t>New Travel Details</t>
+  </si>
+  <si>
+    <t>--------------------------</t>
+  </si>
+  <si>
+    <t>Name - Name to be taken from register page</t>
+  </si>
+  <si>
+    <t>Current location - API, Area</t>
+  </si>
+  <si>
+    <t>Starting location - manual enter, optional</t>
+  </si>
+  <si>
+    <t>End location - API to provide City, auto load the place name. Need to explore more.</t>
+  </si>
+  <si>
+    <t>Search criteria to be provided</t>
+  </si>
+  <si>
+    <t>Start time - by-default entry. 15 min interval , drop-down list</t>
+  </si>
+  <si>
+    <t>Mode - Auto, Cab, Taxi, Private car</t>
+  </si>
+  <si>
+    <t>Total person - manual</t>
   </si>
 </sst>
 </file>
@@ -88,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -111,11 +219,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -125,6 +244,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -495,6 +619,188 @@
       <c r="B8" s="3"/>
       <c r="C8" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Documents/IssueList.xlsx
+++ b/trunk/Documents/IssueList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>Total person restriction (for Auto = 3, Cab = 4) is not happening..</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Registration</t>
   </si>
   <si>
-    <t>-----------------</t>
-  </si>
-  <si>
     <t>Mobile no. automated - And there should be local SD and server entry</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>Travel detail list</t>
   </si>
   <si>
-    <t>----------------------</t>
-  </si>
-  <si>
     <t>New plan button</t>
   </si>
   <si>
@@ -161,13 +155,25 @@
   </si>
   <si>
     <t>Total person - manual</t>
+  </si>
+  <si>
+    <t>Android dose not support dual sim</t>
+  </si>
+  <si>
+    <t>Do not think it reqired by implementing reactive event</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Already implementated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +182,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -234,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -249,6 +262,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,16 +557,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="80.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="90.7109375" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -654,7 +668,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -672,135 +686,152 @@
       <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="7" t="s">
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:3">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:3">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:3">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:3">
       <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="7" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="7" t="s">
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="7" t="s">
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="7" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="7" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="7" t="s">
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="7" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:2">
       <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:2">
       <c r="A40" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:2">
       <c r="A41" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:2">
       <c r="A42" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="7" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="7" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:2">
       <c r="A46" s="7" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
